--- a/Plan/Table/Live_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Live_Data/02.Exp_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE195810-DD8E-4782-9D4F-64D5A8645A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AD7471-0E92-473D-A494-46EB0692E091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C38D021B-A36B-4471-8C7E-CF44EB72D0C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A1348A24-3FF7-4E99-BC20-F922F8765A43}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB444DA6-57CF-41B8-85F2-BE577F110EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92458A8-457A-4745-B7E3-28D355EEEAD7}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B100"/>
   <sheetViews>

--- a/Plan/Table/Live_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Live_Data/02.Exp_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FluffyClient2024\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AD7471-0E92-473D-A494-46EB0692E091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FBE38-EF45-463E-9902-899ACE21FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A1348A24-3FF7-4E99-BC20-F922F8765A43}"/>
+    <workbookView xWindow="330" yWindow="2655" windowWidth="28470" windowHeight="11385" xr2:uid="{A1348A24-3FF7-4E99-BC20-F922F8765A43}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -426,15 +426,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92458A8-457A-4745-B7E3-28D355EEEAD7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,795 +442,1092 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
         <v>0</v>
       </c>
     </row>

--- a/Plan/Table/Live_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Live_Data/02.Exp_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr codeName="현재_통합_문서"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FluffyClient2024\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FBE38-EF45-463E-9902-899ACE21FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C00AFA9-0215-4387-9E4B-2A851250D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="2655" windowWidth="28470" windowHeight="11385" xr2:uid="{A1348A24-3FF7-4E99-BC20-F922F8765A43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A82B5797-0E67-4F12-83C1-22CE7A0C9888}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>level</t>
   </si>
   <si>
     <t>next_hero_lv_need_exp</t>
+  </si>
+  <si>
+    <t>next_stage_lv_count</t>
   </si>
 </sst>
 </file>
@@ -424,12 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92458A8-457A-4745-B7E3-28D355EEEAD7}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23025797-6941-453A-92DF-971C8C8DA73C}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,6 +443,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -450,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -461,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -593,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -604,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -659,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -747,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -769,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -780,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -791,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -857,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -868,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -879,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -901,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -934,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1000,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1055,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1066,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1088,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1099,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1121,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1132,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1143,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1154,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1176,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1220,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1352,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Live_Data/02.Exp_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C00AFA9-0215-4387-9E4B-2A851250D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC24C2D-9D7E-490C-9576-89D9C0AA5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A82B5797-0E67-4F12-83C1-22CE7A0C9888}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ADA4DCC7-9459-47ED-9FCF-B3A2E39B80FE}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>level</t>
   </si>
   <si>
     <t>next_hero_lv_need_exp</t>
-  </si>
-  <si>
-    <t>next_stage_lv_count</t>
   </si>
 </sst>
 </file>
@@ -427,1113 +424,813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23025797-6941-453A-92DF-971C8C8DA73C}">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1B7FF0-271B-440C-AEEC-8211C55AB8B6}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
-      </c>
-      <c r="C100">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
